--- a/theo/outputs/DVN/correlations.xlsx
+++ b/theo/outputs/DVN/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.1446597030733068</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.002782470198225723</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>-0.01500821250660369</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>-0.04908884397238759</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.06646943559923665</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.06324318811877834</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.06268400770564196</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.4119010260577616</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.4075478619541237</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.06324318811877834</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.06268400770564196</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.4119010260577616</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.4075478619541237</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.002219870535722133</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>0.03181509392708453</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>0.001491611646087634</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.1446597030733068</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.1545166956871004</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.1376087771459627</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.6487656632114119</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.6228188715673796</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.06887928057851253</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.06829632240043865</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.3657130502807738</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.3623748412963932</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.07006230226681101</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.07058615928052395</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.3380589490426038</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.3346515171921058</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.03455341568324864</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.1173811685132269</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.02792275415823091</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.002782470198225723</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.1545166956871004</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.8316283893643761</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>0.06178517732488836</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.04917368925777169</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>-0.03153195777876294</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>-0.03432690396550065</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>-0.1132398137973647</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>-0.1153493969519543</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>-0.09272741127801877</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>-0.09584510993964898</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>-0.1017648724613355</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>-0.1058976812176156</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.3167428212250445</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.1847072162960416</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9475442796418647</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>-0.01500821250660369</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.1376087771459627</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.8316283893643761</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.2208829688881939</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.1893743831857066</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.05635304637719352</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.05573285499568112</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.07300267522046056</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.07287995007222328</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.02982793642984726</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.02996293322439718</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.06118825481887501</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.0595267537320231</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.2633269478965112</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1621264217384069</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.714715497294092</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>-0.04908884397238759</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.6487656632114119</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>0.06178517732488836</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.2208829688881939</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.8573516742323543</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.06162823968937338</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.06329736277456431</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.3019840217416426</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.3087990930234156</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.1134775684685193</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.1165322762883729</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.31077103878202</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.3179172923781227</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.2699381839711102</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.2094926158421273</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.1240856726523499</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.06646943559923665</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.6228188715673796</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.04917368925777169</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.1893743831857066</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.8573516742323543</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.08968644649251703</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.09030209905488991</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.5003967386722592</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.5033800535643694</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1236579804590623</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1254212810644974</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.5071337205209187</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.5103561632031556</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.2380296118757239</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.1809682895917523</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>0.1125334246551007</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.06324318811877834</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.06887928057851253</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>-0.03153195777876294</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.05635304637719352</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.06162823968937338</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.08968644649251703</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9995749620829919</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1827076848489772</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1831911378521623</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.06543269523566718</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.06739898892898949</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1733892104248111</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1731984238118521</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.15103879337874</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.1274074739642666</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>-0.005882963212531571</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.06268400770564196</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.06829632240043865</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>-0.03432690396550065</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.05573285499568112</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.06329736277456431</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.09030209905488991</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9995749620829919</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1831359159794857</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1836758959461524</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.06848706950072501</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.07055589398405747</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1734047078708165</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1732537188430366</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.1549738585151512</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.1303531175267156</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>-0.007510055263672277</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.4119010260577616</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.3657130502807738</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>-0.1132398137973647</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.07300267522046056</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.3019840217416426</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.5003967386722592</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1827076848489772</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1831359159794857</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998548568566538</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.0678118109744023</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.06925538980349745</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9783023915495656</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9783524292650118</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.3214057607475291</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.3451841505555144</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.1647737444914479</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.4075478619541237</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.3623748412963932</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>-0.1153493969519543</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.07287995007222328</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.3087990930234156</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.5033800535643694</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1831911378521623</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1836758959461524</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998548568566538</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.06759607937704271</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.0690050770354239</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9782175871730544</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9785411986135628</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.3248608485968943</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.3485204178632672</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.1676162822585892</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.06324318811877834</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.07006230226681101</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>-0.09272741127801877</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.02982793642984726</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.1134775684685193</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1236579804590623</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.06543269523566718</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.06848706950072501</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.0678118109744023</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.06759607937704271</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9995749620829919</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1827076848489772</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1831911378521623</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>-0.199954889050435</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.06336914020719828</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>-0.1169033117688989</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.06268400770564196</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.07058615928052395</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>-0.09584510993964898</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.02996293322439718</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.1165322762883729</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1254212810644974</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.06739898892898949</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.07055589398405747</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.06925538980349745</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.0690050770354239</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9995749620829919</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1831359159794857</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1836758959461524</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>-0.2061871425586048</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.06613529672588092</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>-0.1206025958222061</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.4119010260577616</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.3380589490426038</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>-0.1017648724613355</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.06118825481887501</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.31077103878202</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.5071337205209187</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1733892104248111</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1734047078708165</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9783023915495656</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9782175871730544</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1827076848489772</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1831359159794857</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998548568566538</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.2753399239833554</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.3440078920283702</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.145538231755434</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.4075478619541237</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.3346515171921058</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>-0.1058976812176156</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.0595267537320231</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.3179172923781227</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.5103561632031556</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1731984238118521</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1732537188430366</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9783524292650118</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9785411986135628</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1831911378521623</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1836758959461524</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998548568566538</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.2796991226525417</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.3476375426351994</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.150240320265087</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.002219870535722133</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.03455341568324864</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.3167428212250445</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.2633269478965112</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.2699381839711102</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.2380296118757239</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.15103879337874</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.1549738585151512</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.3214057607475291</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.3248608485968943</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>-0.199954889050435</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>-0.2061871425586048</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.2753399239833554</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.2796991226525417</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.5977806605064407</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.4253063068899425</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>0.03181509392708453</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.1173811685132269</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.1847072162960416</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1621264217384069</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.2094926158421273</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.1809682895917523</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.1274074739642666</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.1303531175267156</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.3451841505555144</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.3485204178632672</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.06336914020719828</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.06613529672588092</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.3440078920283702</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.3476375426351994</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.5977806605064407</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.245849703375321</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>0.001491611646087634</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.02792275415823091</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9475442796418647</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.714715497294092</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.1240856726523499</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>0.1125334246551007</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>-0.005882963212531571</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>-0.007510055263672277</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.1647737444914479</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.1676162822585892</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>-0.1169033117688989</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>-0.1206025958222061</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.145538231755434</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.150240320265087</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.4253063068899425</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.245849703375321</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.676140160155529</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.05569914495988607</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.05935285456730423</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.3488031075063847</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.6982854113786455</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02109602759768354</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02123655008602836</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1121888371602037</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1154382942885139</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02109602759768354</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02123655008602836</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1121888371602037</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1154382942885139</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>-0.001464377833764009</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.03302179620153686</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.01019386487212747</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.676140160155529</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.009252108240800404</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.0002753051222803576</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.126430844968546</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8975321821674528</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.03417394525284573</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.03445004484711486</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.2223088736389451</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.2165728180667245</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.04674956162564266</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.04636985669238424</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.2069659203572789</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.2013595599994126</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>-0.006211977387467685</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.01447458662605959</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.003796750831243943</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.05569914495988607</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.009252108240800404</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.6884716619142652</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.05233505550650466</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>0.01534351382255059</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.005461208183775722</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.01403255954242191</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.04546600077768864</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.04823998991945047</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.05413409001271537</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.05194868618945504</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.01652731797814781</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.02149357403800114</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.3753305604738685</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.2044685253644675</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9647455009985909</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.05935285456730423</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.0002753051222803576</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.6884716619142652</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.1655764475596581</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.02533250702042416</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.1624312789702611</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.1577825976750371</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.05540481292344036</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.05381081550188468</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.01162290422715518</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.009657969985546085</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.06244323059473771</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.05862302091224747</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.4138355346593415</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1599071492898388</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.594435145529726</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.3488031075063847</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.126430844968546</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.05233505550650466</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.1655764475596581</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.1529958360249071</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>0.005594089242534707</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>0.006827270318913311</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.05927562558828951</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>0.06260934452939115</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>0.003784640505871365</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>0.005959443975142233</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.05910659375289242</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>0.06259736204317382</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1459166989782023</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.1318643867285472</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.09536048194494258</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.6982854113786455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8975321821674528</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>0.01534351382255059</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.02533250702042416</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.1529958360249071</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05148786338021776</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05184198096776717</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.2303854086150274</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.2358199113347151</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.06476666599341918</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.06496306411160145</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.232790573768091</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.2381739878708731</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.05163430945987088</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.1004847240520528</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.02412108422114468</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02109602759768354</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.03417394525284573</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.005461208183775722</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.1624312789702611</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>0.005594089242534707</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05148786338021776</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9987176982228173</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1835344320965836</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.18202064463367</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.06451738236437821</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.06277862339177288</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1714245429142138</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1699590361552084</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.2151261456735918</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.1327383266505929</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.02896111562589501</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02123655008602836</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.03445004484711486</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.01403255954242191</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.1577825976750371</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>0.006827270318913311</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05184198096776717</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9987176982228173</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1853580667215207</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1841110193336606</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.06369259804989072</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.06223122676603916</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1733727644501152</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.172134686277102</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.2201224084812879</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.1337833734953114</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.03727740329972114</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1121888371602037</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.2223088736389451</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.04546600077768864</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.05540481292344036</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.05927562558828951</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.2303854086150274</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1835344320965836</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1853580667215207</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9993576551364247</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.01498623748836941</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.01766940675619171</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9693047889639341</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9689867156476416</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.1278767043226033</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.1902374634201431</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.06171258826577801</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1154382942885139</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.2165728180667245</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.04823998991945047</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.05381081550188468</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>0.06260934452939115</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.2358199113347151</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.18202064463367</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1841110193336606</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9993576551364247</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.01677979378122861</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.01934696674996239</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9691289600166466</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9700334802670931</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.1293214814251643</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.1936865601363247</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.06509076789455942</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02109602759768354</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.04674956162564266</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.05413409001271537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.01162290422715518</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>0.003784640505871365</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.06476666599341918</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.06451738236437821</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.06369259804989072</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.01498623748836941</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.01677979378122861</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9987176982228173</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1835344320965836</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.18202064463367</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.03791118123524373</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>-0.03534864909348965</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.03851195468106947</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02123655008602836</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.04636985669238424</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.05194868618945504</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.009657969985546085</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>0.005959443975142233</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.06496306411160145</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.06277862339177288</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.06223122676603916</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.01766940675619171</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.01934696674996239</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9987176982228173</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1853580667215207</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1841110193336606</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.0384538502227877</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>-0.03567509797570179</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.03649705266924592</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1121888371602037</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.2069659203572789</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.01652731797814781</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.06244323059473771</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.05910659375289242</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.232790573768091</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1714245429142138</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1733727644501152</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9693047889639341</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9691289600166466</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1835344320965836</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1853580667215207</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9993576551364247</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.1046464249026703</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.193034405714451</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.03490092892979021</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1154382942885139</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.2013595599994126</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.02149357403800114</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.05862302091224747</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>0.06259736204317382</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.2381739878708731</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1699590361552084</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.172134686277102</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9689867156476416</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9700334802670931</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.18202064463367</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1841110193336606</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9993576551364247</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.1057346641290096</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.1962716928008887</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.04008382086954097</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>-0.001464377833764009</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>-0.006211977387467685</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.3753305604738685</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.4138355346593415</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1459166989782023</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.05163430945987088</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.2151261456735918</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.2201224084812879</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.1278767043226033</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.1293214814251643</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.03791118123524373</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.0384538502227877</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.1046464249026703</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.1057346641290096</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.4610115940023457</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.4512583173971147</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.03302179620153686</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.01447458662605959</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.2044685253644675</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1599071492898388</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.1318643867285472</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.1004847240520528</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.1327383266505929</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.1337833734953114</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.1902374634201431</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.1936865601363247</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>-0.03534864909348965</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>-0.03567509797570179</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.193034405714451</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.1962716928008887</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.4610115940023457</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.23659423325834</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.01019386487212747</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.003796750831243943</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9647455009985909</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.594435145529726</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.09536048194494258</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.02412108422114468</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.02896111562589501</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.03727740329972114</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.06171258826577801</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.06509076789455942</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.03851195468106947</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.03649705266924592</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.03490092892979021</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.04008382086954097</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.4512583173971147</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.23659423325834</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>-0.3829510886795907</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.07500607021060283</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.07483818779559956</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.3280332699485335</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>-0.374820847487276</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.005364307666954236</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.005549011292864281</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.04433180602594558</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.0454815277037751</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.005364307666954236</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.005549011292864281</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.04433180602594558</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.0454815277037751</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.002077644518202798</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.03391114917190761</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.008049821476818314</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>-0.3829510886795907</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.03411018052513219</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.02039499576661365</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.08925393044995696</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9368954425052801</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.03300280909984565</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.0330694166927373</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.2147293026065718</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.2104844332005102</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.03033390080308739</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.03007036839032746</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.2029166383272214</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1988322780256001</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.0182842373998402</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.0150891503512591</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.0137402685407177</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.07500607021060283</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.03411018052513219</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.7162294405206366</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.0922256789042578</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.008516901436458663</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.0670437251210402</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.06678503157220711</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.07351172474250414</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.06661666465616062</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>-0.007269521185938762</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>-0.006371558003846736</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.05590060319507224</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.0527198867749329</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.3688253523766534</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.2161407239864137</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.9175825339311342</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.07483818779559956</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.02039499576661365</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.7162294405206366</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.2260700278646218</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.03501293410287394</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.01796264863795206</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.02155556385883994</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.04005286226754949</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.04027347973649546</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.01247121848055265</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.01331140082449891</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.03472507169016284</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.03361900380349216</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.3845009312979249</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1583243155758899</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.5768856310853666</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.3280332699485335</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.08925393044995696</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.0922256789042578</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.2260700278646218</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.1546773590756741</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.03258331691749312</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.03270326712603525</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.1793367444152988</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.1804997360433574</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.03561885600729649</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.03613690300874787</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.1799145001680528</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.1811385061840453</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1791120470028096</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1436456363952394</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.1060564330384461</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>-0.374820847487276</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9368954425052801</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.008516901436458663</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.03501293410287394</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.1546773590756741</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.03387104123087463</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.0340113878296957</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1402756428336714</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.143301329367052</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.03766149500352244</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.03762671920813261</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1409532811772678</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1439443209370323</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.03536833092586228</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.05176568035699264</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.03044111756574942</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.005364307666954236</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.03300280909984565</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.0670437251210402</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.01796264863795206</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.03258331691749312</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.03387104123087463</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.99689105254396</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1874779638484123</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1849288883006267</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.01790875803893976</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.01477625086607308</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1805289479187767</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1786463667542612</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.1145409987311779</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.04361409597411981</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.1067641367979753</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.005549011292864281</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.0330694166927373</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.06678503157220711</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.02155556385883994</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.03270326712603525</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.0340113878296957</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.99689105254396</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1880652614882023</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.18668126816136</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.0147974928451392</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.01199521039141266</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1816831008993756</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1808816187436168</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.1189789845975567</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.04472336519944101</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.106883794590236</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.04433180602594558</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.2147293026065718</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.07351172474250414</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.04005286226754949</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.1793367444152988</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1402756428336714</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1874779638484123</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1880652614882023</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9964309053324765</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.01802325985709016</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.01869524098214227</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9682722251683794</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9650601237720677</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.150587268377022</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.1873464412771142</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.1239537967488061</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.0454815277037751</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.2104844332005102</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.06661666465616062</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.04027347973649546</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.1804997360433574</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.143301329367052</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1849288883006267</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.18668126816136</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9964309053324765</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.01884116055126917</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.01964464547245605</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9652980276932572</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9689699430354629</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.1417604364987768</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.1788529319939688</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.117000046603341</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.005364307666954236</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.03033390080308739</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>-0.007269521185938762</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.01247121848055265</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.03561885600729649</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.03766149500352244</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.01790875803893976</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.0147974928451392</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.01802325985709016</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.01884116055126917</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.99689105254396</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1874779638484123</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1849288883006267</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.03396463254372856</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.02453303412890112</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>-0.01219743414157648</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.005549011292864281</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.03007036839032746</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>-0.006371558003846736</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.01331140082449891</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.03613690300874787</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.03762671920813261</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.01477625086607308</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.01199521039141266</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.01869524098214227</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.01964464547245605</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.99689105254396</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1880652614882023</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.18668126816136</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>-0.03381699759329716</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.02522672618908137</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>-0.01164111946538473</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.04433180602594558</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.2029166383272214</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.05590060319507224</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.03472507169016284</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.1799145001680528</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1409532811772678</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1805289479187767</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1816831008993756</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9682722251683794</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9652980276932572</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1874779638484123</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1880652614882023</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9964309053324765</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.1217411266118241</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.1831980848640014</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.09713195716569582</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.0454815277037751</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1988322780256001</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.0527198867749329</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.03361900380349216</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.1811385061840453</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1439443209370323</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1786463667542612</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1808816187436168</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9650601237720677</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9689699430354629</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1849288883006267</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.18668126816136</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9964309053324765</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.1160154983368817</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.1755846217362017</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.09394304258521498</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.002077644518202798</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.0182842373998402</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.3688253523766534</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.3845009312979249</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1791120470028096</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.03536833092586228</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.1145409987311779</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.1189789845975567</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.150587268377022</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.1417604364987768</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.03396463254372856</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>-0.03381699759329716</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.1217411266118241</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.1160154983368817</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.4967825127932017</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.4453993463373699</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.03391114917190761</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.0150891503512591</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.2161407239864137</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1583243155758899</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1436456363952394</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.05176568035699264</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.04361409597411981</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.04472336519944101</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.1873464412771142</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.1788529319939688</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.02453303412890112</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.02522672618908137</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.1831980848640014</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.1755846217362017</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.4967825127932017</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.2554723096855864</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.008049821476818314</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.0137402685407177</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.9175825339311342</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.5768856310853666</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.1060564330384461</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.03044111756574942</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.1067641367979753</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.106883794590236</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.1239537967488061</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.117000046603341</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>-0.01219743414157648</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>-0.01164111946538473</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.09713195716569582</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.09394304258521498</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.4453993463373699</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.2554723096855864</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
